--- a/cases/old/NorthSea_v3/Cost_Networks/NetworkCost.xlsx
+++ b/cases/old/NorthSea_v3/Cost_Networks/NetworkCost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Cost_Networks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\old\NorthSea_v3\Cost_Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC81CDA-AD86-4DE5-B837-4CB1AD8229AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB644D6-5464-416C-9428-813C993C1EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A7FF563-27D4-4AF5-809C-541AF091A2A6}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="ACDC" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToModel!$A$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToModel!$A$2:$Q$2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
   <si>
     <t>Type</t>
   </si>
@@ -237,9 +237,6 @@
     <t>%/km</t>
   </si>
   <si>
-    <t>electricityAC_int</t>
-  </si>
-  <si>
     <t>electricityDC_int</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>hydrogenPipeline_int</t>
+  </si>
+  <si>
+    <t>Inflation Correction</t>
   </si>
 </sst>
 </file>
@@ -385,8 +385,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -503,7 +503,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -514,7 +514,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3641,10 +3641,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3942,193 +3938,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4BAA7A-A190-40C3-8275-483C16A74E0D}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="80" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="60" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="73" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="91.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="38" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="26" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="80" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="60" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="73" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="38" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="26" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="88" max="89" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="92" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="99" max="100" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="80" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="60" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="73" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="91.5703125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="39" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="70.5703125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="45" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="31" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="61" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="150" max="151" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="24" bestFit="1" customWidth="1"/>
-    <col min="155" max="157" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="162" max="164" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="166" max="167" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="45" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="40" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="45" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="80" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="60" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="73" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="39" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="45" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="31" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="61" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="153" max="154" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="24" bestFit="1" customWidth="1"/>
+    <col min="158" max="160" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="165" max="167" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="169" max="170" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="171" max="172" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="45" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="40" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="45" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4142,37 +4138,49 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -4185,31 +4193,47 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
+        <f>ROUND(B3*$R3,0)</f>
+        <v>372</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G3" si="0">ROUND(C3*$R3,0)</f>
+        <v>43695</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <f>0.7%/100</f>
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3">
+      <c r="I3" s="6"/>
+      <c r="J3">
         <v>40</v>
       </c>
-      <c r="H3" s="5">
+      <c r="K3" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>2030</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f>1.02^6</f>
+        <v>1.1261624192640001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4222,123 +4246,117 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
-        <f>0.35%/100</f>
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="1">ROUND(B4*$R4,0)</f>
+        <v>270</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F5" si="2">ROUND(C4*$R4,0)</f>
+        <v>136266</v>
+      </c>
       <c r="G4">
+        <f t="shared" ref="G4:G5" si="3">ROUND(D4*$R4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <f>0.4%/100</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4">
         <v>40</v>
       </c>
-      <c r="H4" s="5">
+      <c r="K4" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>2030</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>57</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" ref="R4:R5" si="4">1.02^6</f>
+        <v>1.1261624192640001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
       <c r="B5">
-        <f>B3*F5</f>
-        <v>330000</v>
+        <f>B4*I5</f>
+        <v>240000</v>
       </c>
       <c r="C5">
-        <f>C3*F5</f>
-        <v>38800000</v>
+        <f>C4*I5</f>
+        <v>121000000</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
-        <f>0.7%/100</f>
-        <v>6.9999999999999994E-5</v>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>270279</v>
       </c>
       <c r="F5">
+        <f t="shared" si="2"/>
+        <v>136265653</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f>0.4%/100</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="I5">
         <v>1000</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>40</v>
       </c>
-      <c r="H5" s="5">
+      <c r="K5" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>2030</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>57</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>1.1261624192640001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6">
-        <f>B4*F6</f>
-        <v>240000</v>
-      </c>
-      <c r="C6">
-        <f>C4*F6</f>
-        <v>121000000</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <f>0.35%/100</f>
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="F6">
-        <v>1000</v>
-      </c>
-      <c r="G6">
+        <v>107</v>
+      </c>
+      <c r="I6">
+        <v>13000</v>
+      </c>
+      <c r="J6">
         <v>40</v>
       </c>
-      <c r="H6" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J6">
-        <v>2030</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7">
-        <v>13000</v>
-      </c>
-      <c r="G7">
-        <v>40</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="K6" s="5">
         <f>(0.8+1.7)/2/100</f>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N2" xr:uid="{2A4BAA7A-A190-40C3-8275-483C16A74E0D}"/>
+  <autoFilter ref="A2:Q2" xr:uid="{2A4BAA7A-A190-40C3-8275-483C16A74E0D}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4362,12 +4380,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4375,18 +4393,18 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>13000</v>
@@ -4422,7 +4440,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>3600</v>
@@ -4458,7 +4476,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>1200</v>
@@ -4494,26 +4512,26 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>72</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <f>P37</f>
@@ -4547,7 +4565,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
         <v>1</v>
@@ -4555,34 +4573,34 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="Y20" t="s">
         <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4601,7 +4619,7 @@
         <v>56000000.000000007</v>
       </c>
       <c r="E21">
-        <f>B21*$P$37+C21*$P$38+$P$36</f>
+        <f t="shared" ref="E21:E40" si="1">B21*$P$37+C21*$P$38+$P$36</f>
         <v>49.795768347770696</v>
       </c>
       <c r="G21">
@@ -4619,7 +4637,7 @@
         <v>171000000</v>
       </c>
       <c r="K21">
-        <f>H21*$Z$37+I21*$Z$38+$Z$36</f>
+        <f t="shared" ref="K21:K40" si="2">H21*$Z$37+I21*$Z$38+$Z$36</f>
         <v>141.77635440049869</v>
       </c>
     </row>
@@ -4635,11 +4653,11 @@
         <v>13000</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D40" si="1">($C$5+$D$5)*A22*10^6</f>
+        <f t="shared" ref="D22:D40" si="3">($C$5+$D$5)*A22*10^6</f>
         <v>112000000.00000001</v>
       </c>
       <c r="E22">
-        <f>B22*$P$37+C22*$P$38+$P$36</f>
+        <f t="shared" si="1"/>
         <v>109.94734959095501</v>
       </c>
       <c r="G22">
@@ -4653,19 +4671,19 @@
         <v>13000</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:J40" si="2">($C$6+$D$6)*G22*10^6</f>
+        <f t="shared" ref="J22:J40" si="4">($C$6+$D$6)*G22*10^6</f>
         <v>342000000</v>
       </c>
       <c r="K22">
-        <f>H22*$Z$37+I22*$Z$38+$Z$36</f>
+        <f t="shared" si="2"/>
         <v>338.30572644641359</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P22" s="10"/>
       <c r="Y22" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z22" s="10"/>
     </row>
@@ -4681,11 +4699,11 @@
         <v>13000</v>
       </c>
       <c r="D23">
+        <f t="shared" si="3"/>
+        <v>168000000.00000003</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>168000000.00000003</v>
-      </c>
-      <c r="E23">
-        <f>B23*$P$37+C23*$P$38+$P$36</f>
         <v>170.09893083413934</v>
       </c>
       <c r="G23">
@@ -4699,21 +4717,21 @@
         <v>13000</v>
       </c>
       <c r="J23">
+        <f t="shared" si="4"/>
+        <v>513000000</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="2"/>
-        <v>513000000</v>
-      </c>
-      <c r="K23">
-        <f>H23*$Z$37+I23*$Z$38+$Z$36</f>
         <v>534.83509849232848</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7">
         <v>0.97977577700084184</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z23" s="7">
         <v>0.93855775701874167</v>
@@ -4731,11 +4749,11 @@
         <v>13000</v>
       </c>
       <c r="D24">
+        <f t="shared" si="3"/>
+        <v>224000000.00000003</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>224000000.00000003</v>
-      </c>
-      <c r="E24">
-        <f>B24*$P$37+C24*$P$38+$P$36</f>
         <v>230.25051207732366</v>
       </c>
       <c r="G24">
@@ -4749,21 +4767,21 @@
         <v>13000</v>
       </c>
       <c r="J24">
+        <f t="shared" si="4"/>
+        <v>684000000</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="2"/>
-        <v>684000000</v>
-      </c>
-      <c r="K24">
-        <f>H24*$Z$37+I24*$Z$38+$Z$36</f>
         <v>731.36447053824338</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P24" s="7">
         <v>0.95996057319760342</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z24" s="7">
         <v>0.88089066326005128</v>
@@ -4774,46 +4792,46 @@
         <v>250</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B40" si="3">C25*A25</f>
+        <f t="shared" ref="B25:B40" si="5">C25*A25</f>
         <v>3250000</v>
       </c>
       <c r="C25">
         <v>13000</v>
       </c>
       <c r="D25">
+        <f t="shared" si="3"/>
+        <v>280000000</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>280000000</v>
-      </c>
-      <c r="E25">
-        <f>B25*$P$37+C25*$P$38+$P$36</f>
         <v>290.40209332050796</v>
       </c>
       <c r="G25">
         <v>250</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H40" si="4">I25*G25</f>
+        <f t="shared" ref="H25:H40" si="6">I25*G25</f>
         <v>3250000</v>
       </c>
       <c r="I25">
         <v>13000</v>
       </c>
       <c r="J25">
+        <f t="shared" si="4"/>
+        <v>855000000</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="2"/>
-        <v>855000000</v>
-      </c>
-      <c r="K25">
-        <f>H25*$Z$37+I25*$Z$38+$Z$36</f>
         <v>927.89384258415828</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P25" s="7">
         <v>0.95106292279707083</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z25" s="7">
         <v>0.85442192176228504</v>
@@ -4824,46 +4842,46 @@
         <v>300</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3900000</v>
       </c>
       <c r="C26">
         <v>13000</v>
       </c>
       <c r="D26">
+        <f t="shared" si="3"/>
+        <v>336000000.00000006</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="1"/>
-        <v>336000000.00000006</v>
-      </c>
-      <c r="E26">
-        <f>B26*$P$37+C26*$P$38+$P$36</f>
         <v>350.55367456369231</v>
       </c>
       <c r="G26">
         <v>300</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3900000</v>
       </c>
       <c r="I26">
         <v>13000</v>
       </c>
       <c r="J26">
+        <f t="shared" si="4"/>
+        <v>1026000000</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="2"/>
-        <v>1026000000</v>
-      </c>
-      <c r="K26">
-        <f>H26*$Z$37+I26*$Z$38+$Z$36</f>
         <v>1124.4232146300733</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P26" s="7">
         <v>13.307416758100223</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z26" s="7">
         <v>69.201448774718187</v>
@@ -4874,46 +4892,46 @@
         <v>350</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4550000</v>
       </c>
       <c r="C27">
         <v>13000</v>
       </c>
       <c r="D27">
+        <f t="shared" si="3"/>
+        <v>392000000.00000006</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="1"/>
-        <v>392000000.00000006</v>
-      </c>
-      <c r="E27">
-        <f>B27*$P$37+C27*$P$38+$P$36</f>
         <v>410.70525580687661</v>
       </c>
       <c r="G27">
         <v>350</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4550000</v>
       </c>
       <c r="I27">
         <v>13000</v>
       </c>
       <c r="J27">
+        <f t="shared" si="4"/>
+        <v>1197000000</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="2"/>
-        <v>1197000000</v>
-      </c>
-      <c r="K27">
-        <f>H27*$Z$37+I27*$Z$38+$Z$36</f>
         <v>1320.9525866759882</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P27" s="8">
         <v>12</v>
       </c>
       <c r="Y27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z27" s="8">
         <v>12</v>
@@ -4924,36 +4942,36 @@
         <v>400</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5200000</v>
       </c>
       <c r="C28">
         <v>13000</v>
       </c>
       <c r="D28">
+        <f t="shared" si="3"/>
+        <v>448000000.00000006</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="1"/>
-        <v>448000000.00000006</v>
-      </c>
-      <c r="E28">
-        <f>B28*$P$37+C28*$P$38+$P$36</f>
         <v>470.85683705006102</v>
       </c>
       <c r="G28">
         <v>400</v>
       </c>
       <c r="H28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5200000</v>
       </c>
       <c r="I28">
         <v>13000</v>
       </c>
       <c r="J28">
+        <f t="shared" si="4"/>
+        <v>1368000000</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="2"/>
-        <v>1368000000</v>
-      </c>
-      <c r="K28">
-        <f>H28*$Z$37+I28*$Z$38+$Z$36</f>
         <v>1517.4819587219031</v>
       </c>
     </row>
@@ -4962,43 +4980,43 @@
         <v>450</v>
       </c>
       <c r="B29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5850000</v>
       </c>
       <c r="C29">
         <v>13000</v>
       </c>
       <c r="D29">
+        <f t="shared" si="3"/>
+        <v>504000000.00000006</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="1"/>
-        <v>504000000.00000006</v>
-      </c>
-      <c r="E29">
-        <f>B29*$P$37+C29*$P$38+$P$36</f>
         <v>531.00841829324531</v>
       </c>
       <c r="G29">
         <v>450</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5850000</v>
       </c>
       <c r="I29">
         <v>13000</v>
       </c>
       <c r="J29">
+        <f t="shared" si="4"/>
+        <v>1539000000</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="2"/>
-        <v>1539000000</v>
-      </c>
-      <c r="K29">
-        <f>H29*$Z$37+I29*$Z$38+$Z$36</f>
         <v>1714.011330767818</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -5006,69 +5024,69 @@
         <v>500</v>
       </c>
       <c r="B30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6500000</v>
       </c>
       <c r="C30">
         <v>13000</v>
       </c>
       <c r="D30">
+        <f t="shared" si="3"/>
+        <v>560000000</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="1"/>
-        <v>560000000</v>
-      </c>
-      <c r="E30">
-        <f>B30*$P$37+C30*$P$38+$P$36</f>
         <v>591.1599995364295</v>
       </c>
       <c r="G30">
         <v>500</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6500000</v>
       </c>
       <c r="I30">
         <v>13000</v>
       </c>
       <c r="J30">
+        <f t="shared" si="4"/>
+        <v>1710000000</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="2"/>
-        <v>1710000000</v>
-      </c>
-      <c r="K30">
-        <f>H30*$Z$37+I30*$Z$38+$Z$36</f>
         <v>1910.5407028137329</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q30" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="R30" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="S30" s="9" t="s">
         <v>10</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA30" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AA30" s="9" t="s">
+      <c r="AB30" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="AB30" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="AC30" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AD30" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -5076,40 +5094,40 @@
         <v>550</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7150000</v>
       </c>
       <c r="C31">
         <v>13000</v>
       </c>
       <c r="D31">
+        <f t="shared" si="3"/>
+        <v>616000000.00000012</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="1"/>
-        <v>616000000.00000012</v>
-      </c>
-      <c r="E31">
-        <f>B31*$P$37+C31*$P$38+$P$36</f>
         <v>651.31158077961391</v>
       </c>
       <c r="G31">
         <v>550</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7150000</v>
       </c>
       <c r="I31">
         <v>13000</v>
       </c>
       <c r="J31">
+        <f t="shared" si="4"/>
+        <v>1881000000</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="2"/>
-        <v>1881000000</v>
-      </c>
-      <c r="K31">
-        <f>H31*$Z$37+I31*$Z$38+$Z$36</f>
         <v>2107.0700748596478</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P31" s="7">
         <v>2</v>
@@ -5127,7 +5145,7 @@
         <v>5.1427490430817188E-7</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z31" s="7">
         <v>2</v>
@@ -5150,40 +5168,40 @@
         <v>600</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7800000</v>
       </c>
       <c r="C32">
         <v>13000</v>
       </c>
       <c r="D32">
+        <f t="shared" si="3"/>
+        <v>672000000.00000012</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="1"/>
-        <v>672000000.00000012</v>
-      </c>
-      <c r="E32">
-        <f>B32*$P$37+C32*$P$38+$P$36</f>
         <v>711.4631620227982</v>
       </c>
       <c r="G32">
         <v>600</v>
       </c>
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7800000</v>
       </c>
       <c r="I32">
         <v>13000</v>
       </c>
       <c r="J32">
+        <f t="shared" si="4"/>
+        <v>2052000000</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="2"/>
-        <v>2052000000</v>
-      </c>
-      <c r="K32">
-        <f>H32*$Z$37+I32*$Z$38+$Z$36</f>
         <v>2303.5994469055627</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P32" s="7">
         <v>9</v>
@@ -5197,7 +5215,7 @@
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="Y32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z32" s="7">
         <v>9</v>
@@ -5216,40 +5234,40 @@
         <v>650</v>
       </c>
       <c r="B33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8450000</v>
       </c>
       <c r="C33">
         <v>13000</v>
       </c>
       <c r="D33">
+        <f t="shared" si="3"/>
+        <v>728000000.00000012</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="1"/>
-        <v>728000000.00000012</v>
-      </c>
-      <c r="E33">
-        <f>B33*$P$37+C33*$P$38+$P$36</f>
         <v>771.6147432659825</v>
       </c>
       <c r="G33">
         <v>650</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8450000</v>
       </c>
       <c r="I33">
         <v>13000</v>
       </c>
       <c r="J33">
+        <f t="shared" si="4"/>
+        <v>2223000000</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="2"/>
-        <v>2223000000</v>
-      </c>
-      <c r="K33">
-        <f>H33*$Z$37+I33*$Z$38+$Z$36</f>
         <v>2500.1288189514776</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P33" s="8">
         <v>11</v>
@@ -5261,7 +5279,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="Y33" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z33" s="8">
         <v>11</v>
@@ -5278,36 +5296,36 @@
         <v>700</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9100000</v>
       </c>
       <c r="C34">
         <v>13000</v>
       </c>
       <c r="D34">
+        <f t="shared" si="3"/>
+        <v>784000000.00000012</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="1"/>
-        <v>784000000.00000012</v>
-      </c>
-      <c r="E34">
-        <f>B34*$P$37+C34*$P$38+$P$36</f>
         <v>831.76632450916679</v>
       </c>
       <c r="G34">
         <v>700</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9100000</v>
       </c>
       <c r="I34">
         <v>13000</v>
       </c>
       <c r="J34">
+        <f t="shared" si="4"/>
+        <v>2394000000</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="2"/>
-        <v>2394000000</v>
-      </c>
-      <c r="K34">
-        <f>H34*$Z$37+I34*$Z$38+$Z$36</f>
         <v>2696.6581909973925</v>
       </c>
     </row>
@@ -5316,87 +5334,87 @@
         <v>750</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9750000</v>
       </c>
       <c r="C35">
         <v>13000</v>
       </c>
       <c r="D35">
+        <f t="shared" si="3"/>
+        <v>840000000.00000012</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="1"/>
-        <v>840000000.00000012</v>
-      </c>
-      <c r="E35">
-        <f>B35*$P$37+C35*$P$38+$P$36</f>
         <v>891.9179057523512</v>
       </c>
       <c r="G35">
         <v>750</v>
       </c>
       <c r="H35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9750000</v>
       </c>
       <c r="I35">
         <v>13000</v>
       </c>
       <c r="J35">
+        <f t="shared" si="4"/>
+        <v>2565000000</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="2"/>
-        <v>2565000000</v>
-      </c>
-      <c r="K35">
-        <f>H35*$Z$37+I35*$Z$38+$Z$36</f>
         <v>2893.1875630433074</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R35" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="Q35" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R35" s="9" t="s">
+      <c r="S35" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="S35" s="9" t="s">
+      <c r="T35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T35" s="9" t="s">
+      <c r="U35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="U35" s="9" t="s">
+      <c r="V35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="V35" s="9" t="s">
+      <c r="W35" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="W35" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB35" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AA35" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB35" s="9" t="s">
+      <c r="AC35" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AC35" s="9" t="s">
+      <c r="AD35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AD35" s="9" t="s">
+      <c r="AE35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AE35" s="9" t="s">
+      <c r="AF35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AF35" s="9" t="s">
+      <c r="AG35" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="AG35" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
@@ -5404,40 +5422,40 @@
         <v>800</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10400000</v>
       </c>
       <c r="C36">
         <v>13000</v>
       </c>
       <c r="D36">
+        <f t="shared" si="3"/>
+        <v>896000000.00000012</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="1"/>
-        <v>896000000.00000012</v>
-      </c>
-      <c r="E36">
-        <f>B36*$P$37+C36*$P$38+$P$36</f>
         <v>952.0694869955355</v>
       </c>
       <c r="G36">
         <v>800</v>
       </c>
       <c r="H36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10400000</v>
       </c>
       <c r="I36">
         <v>13000</v>
       </c>
       <c r="J36">
+        <f t="shared" si="4"/>
+        <v>2736000000</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="2"/>
-        <v>2736000000</v>
-      </c>
-      <c r="K36">
-        <f>H36*$Z$37+I36*$Z$38+$Z$36</f>
         <v>3089.7169350892223</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P36" s="7">
         <v>39.567835104559464</v>
@@ -5464,7 +5482,7 @@
         <v>52.911434478236018</v>
       </c>
       <c r="Y36" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z36" s="7">
         <v>198.26214946909886</v>
@@ -5496,40 +5514,40 @@
         <v>850</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11050000</v>
       </c>
       <c r="C37">
         <v>13000</v>
       </c>
       <c r="D37">
+        <f t="shared" si="3"/>
+        <v>952000000.00000012</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="1"/>
-        <v>952000000.00000012</v>
-      </c>
-      <c r="E37">
-        <f>B37*$P$37+C37*$P$38+$P$36</f>
         <v>1012.2210682387198</v>
       </c>
       <c r="G37">
         <v>850</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11050000</v>
       </c>
       <c r="I37">
         <v>13000</v>
       </c>
       <c r="J37">
+        <f t="shared" si="4"/>
+        <v>2907000000</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="2"/>
-        <v>2907000000</v>
-      </c>
-      <c r="K37">
-        <f>H37*$Z$37+I37*$Z$38+$Z$36</f>
         <v>3286.2463071351372</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P37" s="7">
         <v>9.2540894220283573E-5</v>
@@ -5556,7 +5574,7 @@
         <v>1.1242297619938827E-4</v>
       </c>
       <c r="Y37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z37" s="7">
         <v>3.0235288007063831E-4</v>
@@ -5588,40 +5606,40 @@
         <v>900</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11700000</v>
       </c>
       <c r="C38">
         <v>13000</v>
       </c>
       <c r="D38">
+        <f t="shared" si="3"/>
+        <v>1008000000.0000001</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="1"/>
-        <v>1008000000.0000001</v>
-      </c>
-      <c r="E38">
-        <f>B38*$P$37+C38*$P$38+$P$36</f>
         <v>1072.3726494819041</v>
       </c>
       <c r="G38">
         <v>900</v>
       </c>
       <c r="H38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11700000</v>
       </c>
       <c r="I38">
         <v>13000</v>
       </c>
       <c r="J38">
+        <f t="shared" si="4"/>
+        <v>3078000000</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="2"/>
-        <v>3078000000</v>
-      </c>
-      <c r="K38">
-        <f>H38*$Z$37+I38*$Z$38+$Z$36</f>
         <v>3482.7756791810521</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P38" s="8">
         <v>-3.8402806153825454E-3</v>
@@ -5648,7 +5666,7 @@
         <v>-8.2547850547705533E-4</v>
       </c>
       <c r="Y38" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z38" s="8">
         <v>-1.9462705162655004E-2</v>
@@ -5680,36 +5698,36 @@
         <v>950</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12350000</v>
       </c>
       <c r="C39">
         <v>13000</v>
       </c>
       <c r="D39">
+        <f t="shared" si="3"/>
+        <v>1064000000</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="1"/>
-        <v>1064000000</v>
-      </c>
-      <c r="E39">
-        <f>B39*$P$37+C39*$P$38+$P$36</f>
         <v>1132.5242307250885</v>
       </c>
       <c r="G39">
         <v>950</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12350000</v>
       </c>
       <c r="I39">
         <v>13000</v>
       </c>
       <c r="J39">
+        <f t="shared" si="4"/>
+        <v>3249000000</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="2"/>
-        <v>3249000000</v>
-      </c>
-      <c r="K39">
-        <f>H39*$Z$37+I39*$Z$38+$Z$36</f>
         <v>3679.305051226967</v>
       </c>
     </row>
@@ -5718,66 +5736,66 @@
         <v>1000</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13000000</v>
       </c>
       <c r="C40">
         <v>13000</v>
       </c>
       <c r="D40">
+        <f t="shared" si="3"/>
+        <v>1120000000</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="1"/>
-        <v>1120000000</v>
-      </c>
-      <c r="E40">
-        <f>B40*$P$37+C40*$P$38+$P$36</f>
         <v>1192.6758119682727</v>
       </c>
       <c r="G40">
         <v>1000</v>
       </c>
       <c r="H40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13000000</v>
       </c>
       <c r="I40">
         <v>13000</v>
       </c>
       <c r="J40">
+        <f t="shared" si="4"/>
+        <v>3420000000</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="2"/>
-        <v>3420000000</v>
-      </c>
-      <c r="K40">
-        <f>H40*$Z$37+I40*$Z$38+$Z$36</f>
         <v>3875.8344232728818</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="O42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="O44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="P44" s="9" t="s">
+      <c r="Q44" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="Q44" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="Y44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z44" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Z44" s="9" t="s">
+      <c r="AA44" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="AA44" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
@@ -6286,19 +6304,19 @@
     </row>
     <row r="81" spans="25:27" x14ac:dyDescent="0.25">
       <c r="Y81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="25:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="25:27" x14ac:dyDescent="0.25">
       <c r="Y83" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z83" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Z83" s="9" t="s">
+      <c r="AA83" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="AA83" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="84" spans="25:27" x14ac:dyDescent="0.25">
